--- a/github项目总结及其常用备用软件介绍.xlsx
+++ b/github项目总结及其常用备用软件介绍.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9840"/>
+    <workbookView windowWidth="23325" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="1,自己建立的项目或使用github项目介绍" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>项目</t>
   </si>
@@ -185,6 +185,15 @@
     <t>android折线图经典库</t>
   </si>
   <si>
+    <t>POI</t>
+  </si>
+  <si>
+    <t>Android中读写Excel的做法</t>
+  </si>
+  <si>
+    <t>https://poi.apache.org/download.html</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -304,10 +313,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -326,8 +335,107 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -342,67 +450,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -410,17 +457,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,35 +470,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -471,31 +480,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,151 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,41 +674,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,11 +706,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -740,25 +732,42 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -770,10 +779,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -782,19 +791,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -803,116 +812,116 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +942,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1282,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
@@ -1487,7 +1499,21 @@
         <v>47</v>
       </c>
     </row>
+    <row r="21" customHeight="1" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1" display="https://poi.apache.org/download.html" tooltip="https://poi.apache.org/download.html"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1514,16 +1540,16 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
@@ -1531,13 +1557,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
@@ -1545,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
@@ -1556,13 +1582,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
@@ -1570,10 +1596,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
@@ -1581,13 +1607,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
@@ -1595,13 +1621,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
@@ -1609,13 +1635,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
@@ -1623,13 +1649,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
@@ -1637,10 +1663,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
@@ -1648,10 +1674,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
@@ -1659,10 +1685,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
@@ -1670,10 +1696,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
@@ -1681,13 +1707,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
@@ -1695,10 +1721,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
@@ -1752,7 +1778,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/github项目总结及其常用备用软件介绍.xlsx
+++ b/github项目总结及其常用备用软件介绍.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23325" windowHeight="9840"/>
+    <workbookView windowWidth="23325" windowHeight="9840" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="1,自己建立的项目或使用github项目介绍" sheetId="1" r:id="rId1"/>
+    <sheet name="1,自己建立的repo" sheetId="1" r:id="rId1"/>
     <sheet name="2,软件介绍" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="3,github优秀开源repo" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>项目</t>
   </si>
@@ -194,6 +194,82 @@
     <t>https://poi.apache.org/download.html</t>
   </si>
   <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>日常学习文档,详细文档</t>
+  </si>
+  <si>
+    <t>1,包含了c学习的整个文档,其摘要是在印象笔记当中.
+2,Android学习的路径及其笔记.</t>
+  </si>
+  <si>
+    <t>jchat-android-master</t>
+  </si>
+  <si>
+    <t>私活,即时通讯,极光改造</t>
+  </si>
+  <si>
+    <t>OneKeyLockScreen</t>
+  </si>
+  <si>
+    <t>一键锁屏功能</t>
+  </si>
+  <si>
+    <t>DatePickerProject</t>
+  </si>
+  <si>
+    <t>时间日期选择控件</t>
+  </si>
+  <si>
+    <t>线程的知识</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>录视屏拍照等发朋友圈的功能</t>
+  </si>
+  <si>
+    <t>开发社交中的常用功能</t>
+  </si>
+  <si>
+    <t>uCrop</t>
+  </si>
+  <si>
+    <t>图片裁剪库</t>
+  </si>
+  <si>
+    <t>012_Android5.0-6.0</t>
+  </si>
+  <si>
+    <t>讲解Android5.0和6.0的特性</t>
+  </si>
+  <si>
+    <t>011_MaterialDesignDemo</t>
+  </si>
+  <si>
+    <t>布局特性</t>
+  </si>
+  <si>
+    <t>CoordinatorLayoutProject</t>
+  </si>
+  <si>
+    <t>新版本的布局讲解</t>
+  </si>
+  <si>
+    <t>FileDownloader</t>
+  </si>
+  <si>
+    <t>多线程下载比较好的开源软件</t>
+  </si>
+  <si>
+    <t>002_BackTask</t>
+  </si>
+  <si>
+    <t>后台的任务的一些基本的创建方法</t>
+  </si>
+  <si>
     <t>order</t>
   </si>
   <si>
@@ -306,6 +382,31 @@
   </si>
   <si>
     <t>Visual Studio</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>https://github.com/open-android/Android</t>
+  </si>
+  <si>
+    <t>GitHub上最火的Android开源项目,所有开源项目都有详细资料和配套视频</t>
+  </si>
+  <si>
+    <t>android-TopActivity</t>
+  </si>
+  <si>
+    <t>https://github.com/109021017/android-TopActivity</t>
+  </si>
+  <si>
+    <t>A useful tool for Android Developers, which shows the package name 
+and class name of current activity</t>
   </si>
 </sst>
 </file>
@@ -313,10 +414,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -329,7 +430,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -337,7 +438,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,22 +451,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,38 +491,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -434,24 +513,38 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -465,13 +558,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,43 +581,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -528,13 +755,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,121 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,17 +787,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,18 +843,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -732,42 +862,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,10 +892,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -791,144 +904,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -943,8 +1065,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1294,220 +1425,322 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.00833333333333" defaultRowHeight="35" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="25.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="52.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="78.375" style="5" customWidth="1"/>
-    <col min="4" max="31" width="9" style="1"/>
-    <col min="32" max="16384" width="9.00833333333333" style="1"/>
+    <col min="1" max="1" width="25.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="52.375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="78.375" style="8" customWidth="1"/>
+    <col min="4" max="31" width="9" style="4"/>
+    <col min="32" max="16384" width="9.00833333333333" style="4"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="110" customHeight="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" ht="133" customHeight="1" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" ht="66" customHeight="1" spans="1:2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" ht="75" customHeight="1" spans="1:3">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="9" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" ht="131" customHeight="1" spans="1:3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" ht="61" customHeight="1" spans="1:3">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="9" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="10" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:2">
+      <c r="A23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:2">
+      <c r="A25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:2">
+      <c r="A26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:3">
+      <c r="A27" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:2">
+      <c r="A29" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:2">
+      <c r="A30" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:2">
+      <c r="A31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:2">
+      <c r="A32" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:2">
+      <c r="A33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1526,239 +1759,239 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="32.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="2" width="32.25" style="4" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
     <col min="4" max="4" width="89.5" customWidth="1"/>
     <col min="5" max="5" width="30.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>54</v>
+    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>55</v>
+      <c r="B2" s="4" t="s">
+        <v>80</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>81</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>58</v>
+      <c r="B3" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>60</v>
+      <c r="B4" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>63</v>
+      <c r="B5" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>65</v>
+      <c r="B6" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>68</v>
+      <c r="B7" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>71</v>
+      <c r="B8" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="29" customHeight="1" spans="1:4">
-      <c r="A9" s="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>74</v>
+      <c r="B9" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>77</v>
+      <c r="B10" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>79</v>
+      <c r="B11" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>81</v>
+      <c r="B12" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>83</v>
+      <c r="B13" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" ht="33" customHeight="1" spans="1:4">
-      <c r="A14" s="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>85</v>
+      <c r="B14" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>87</v>
+        <v>111</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>88</v>
+      <c r="B15" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="C15" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="1:1">
-      <c r="A16" s="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="1:1">
-      <c r="A17" s="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="1:1">
-      <c r="A18" s="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:1">
-      <c r="A19" s="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="1:1">
-      <c r="A20" s="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:1">
-      <c r="A21" s="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:1">
-      <c r="A22" s="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
@@ -1775,14 +2008,57 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="20" customHeight="1" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="2" max="2" width="52.75" customWidth="1"/>
+    <col min="3" max="3" width="85.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" ht="22" customHeight="1" spans="1:3">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" ht="31" customHeight="1" spans="1:3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://github.com/open-android/Android"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://github.com/109021017/android-TopActivity"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
